--- a/02_Python_Collection/output/naver.xlsx
+++ b/02_Python_Collection/output/naver.xlsx
@@ -448,72 +448,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>코스피, 2년 5개월 만의 2800선…영일만 확장·저출산주 上</t>
+          <t>영일만 프로젝트 참가? 포스코인터 장중 12%대 폭등</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=015&amp;article_id=0004999483</t>
+          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=009&amp;article_id=0005322689</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>佛 증시 조기 총선 우려로 급락…명품주도 주르륵</t>
+          <t>1390원대 환율과 외인 국채선물 매집…변동성 장세 불가피[채권분석]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=015&amp;article_id=0004999475</t>
+          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=018&amp;article_id=0005770204</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>야놀자 10조 기업가치 언급에 매각 앞둔 하나투어 몸값도?</t>
+          <t>환율 1,400원 목전서 국민연금 스와프 증액…원화약세 방어할까</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=008&amp;article_id=0005053342</t>
+          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=001&amp;article_id=0014761468</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>한국은 ‘주식 이민’ 가는데…미국 MZ 부자개미들 “미국주식보다 부동산·코인이 훨씬 유망” [자이앤트 스톡커]</t>
+          <t>‘자본시장 단골’ SK 재편시도, 시장 화답할까</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=009&amp;article_id=0005322099</t>
+          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=016&amp;article_id=0002325150</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>“외국인이 주식 쓸어 담았다”…지분율 절반 육박, 대체 어떤 회사길래</t>
+          <t>삼성전자 주가 ‘제자리’ 때 엔비디아 10배↑</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=009&amp;article_id=0005322085</t>
+          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=016&amp;article_id=0002325143</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>?5년 만에 주가 3450% 급등…엔비디아 직원은 얼마를 벌었을까?</t>
+          <t>삼성전자, D램 날개달고 HBM 통과도 기대…순매수 1위[주식 초고수는 지금]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=023&amp;article_id=0003841432</t>
+          <t>https://finance.naver.com/news/news_read.naver?mode=mainnews&amp;office_id=011&amp;article_id=0004356275</t>
         </is>
       </c>
     </row>
